--- a/wwwroot/ExcelTemplates/Volume Master.xlsx
+++ b/wwwroot/ExcelTemplates/Volume Master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BED60D3-C00C-47C8-ADEA-FBF6983D3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDD70CA-EDED-4924-B8EA-4085D716B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,31 +31,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>ShortName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,24 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
